--- a/biology/Histoire de la zoologie et de la botanique/Hermann_August_Hagen/Hermann_August_Hagen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hermann_August_Hagen/Hermann_August_Hagen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hermann August Hagen est un entomologiste américain d’origine allemande, né le 30 mai 1817 à Königsberg et mort le 9 novembre 1893 à Cambridge aux États-Unis[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hermann August Hagen est un entomologiste américain d’origine allemande, né le 30 mai 1817 à Königsberg et mort le 9 novembre 1893 à Cambridge aux États-Unis.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Carl Heinrich Hagen et d’Anna née Linck. Il obtient un titre de docteur en médecine à l’université de Königsberg en 1840. Il se marie avec Johanna Maria Gerhards en 1851.
 À l’invitation de Louis Agassiz (1807-1873), il s’installe aux États-Unis en 1867. Il développe le département d’entomologie au Museum of Comparative Zoology d’Harvard. Il devient, en 1870, le premier professeur d’entomologie dans une université américaine. Harvard devient le centre de l’activité entomologique du pays. C’est lui qui forme des étudiants importants comme John Henry Comstock (1849-1931).
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1853. Neuropteren aus Mossambique. Ber. Verh. K. Preuss. Akad. Berl. 1853 : 479-482.
 1858 : Catalogue of the specimens of neuropterous insects in the collection of the British Museum. [Supplément I.] Part 1. Termitina. Printed by order of the Trustees, London. 34 pp.
